--- a/Income/MRK_inc.xlsx
+++ b/Income/MRK_inc.xlsx
@@ -2186,16 +2186,16 @@
         <v>0.7187</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>0.7159</v>
+        <v>0.7143</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>0.7035</v>
+        <v>0.7019</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>0.7037</v>
+        <v>0.7022</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>0.7003</v>
+        <v>0.6987</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>0.7013</v>
@@ -2313,16 +2313,16 @@
         <v>0.1774</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>0.2796</v>
+        <v>0.2792</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>0.2672</v>
+        <v>0.2669</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>0.2671</v>
+        <v>0.2668</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>0.2617</v>
+        <v>0.2613</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>0.2683</v>
@@ -2440,16 +2440,16 @@
         <v>0.1838</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>0.2879</v>
+        <v>0.2875</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>0.2657</v>
+        <v>0.2653</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>0.2551</v>
+        <v>0.2547</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>0.2451</v>
+        <v>0.2447</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>0.2453</v>
@@ -2567,16 +2567,16 @@
         <v>0.1478</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>0.2442</v>
+        <v>0.244</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>0.2228</v>
+        <v>0.2225</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>0.2115</v>
+        <v>0.2113</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>0.2104</v>
+        <v>0.2101</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>0.2026</v>
@@ -2694,16 +2694,16 @@
         <v>0.1165</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>0.1428</v>
+        <v>0.1426</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>0.1987</v>
+        <v>0.1984</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>0.1865</v>
+        <v>0.1863</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>0.213</v>
+        <v>0.2128</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>0.1952</v>
@@ -3716,16 +3716,16 @@
         <v>0.3028</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>0.3834</v>
+        <v>0.3609</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>0.3691</v>
+        <v>0.3466</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>0.3649</v>
+        <v>0.3428</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>0.3619</v>
+        <v>0.3393</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>0.349</v>
@@ -3843,16 +3843,16 @@
         <v>0.2144</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>0.2341</v>
+        <v>0.2338</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>0.2784</v>
+        <v>0.278</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>0.2671</v>
+        <v>0.2667</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>0.2873</v>
+        <v>0.2869</v>
       </c>
       <c r="H29" s="0" t="n">
         <v>0.2662</v>
